--- a/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_6_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/100/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1175236.014753845</v>
+        <v>1165450.255737535</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16641689.10798709</v>
+        <v>16614581.94299117</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484443</v>
+        <v>318032.2590466436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7041568.120391205</v>
+        <v>7092433.691873004</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>285.457891349523</v>
+        <v>331.484581935008</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>135.6972289535718</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>58.85919379403585</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>59.59474737021493</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>214.5368897552614</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>137.247051021543</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>350.2321748470106</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>45.10878876340928</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1294,13 +1294,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>141.3509401177975</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>163.5395542426789</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>168.8568315421626</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1537,13 +1537,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.34780583513581</v>
       </c>
       <c r="G13" t="n">
-        <v>60.78001549303691</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>347.9615082703082</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1667,7 +1667,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>132.7957673084558</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>167.0321597791026</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1771,19 +1771,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225794</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2050,13 +2050,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>102.8562685532374</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>131.996999652747</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2476,7 +2476,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>31.2439167388814</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2530,10 +2530,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
@@ -2773,13 +2773,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>216.3562841193493</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>8.909245336631582</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3004,10 +3004,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>193.8659438253731</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3016,7 +3016,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3430,7 +3430,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6.133574646794328</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3442,7 +3442,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>111.6992875207551</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3512,7 +3512,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3673,10 +3673,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665256</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3712,7 +3712,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3721,10 +3721,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>125.6544692828954</v>
       </c>
       <c r="X40" t="n">
-        <v>19.800876300348</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>32.67077719907106</v>
+        <v>33.39301028534092</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>50.30825486907148</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>20.56754178381428</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3995,7 +3995,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>33.08339867820199</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4040,7 +4040,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>365.5286939938218</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4189,13 +4189,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>172.6623007436913</v>
+        <v>157.8824880649894</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>566.6084679699636</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>532.5063991937909</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>500.6370184086394</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>470.9026776073387</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>447.0756520569504</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>45.67782068021432</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>45.67782068021432</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>45.67782068021432</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>480.9325081331322</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>1002.975152381412</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>1002.975152381412</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>1002.975152381412</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1002.975152381412</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1568.238183299065</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1568.238183299065</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2114.736969257659</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2283.891034010716</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2283.891034010716</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2063.823806883755</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2063.823806883755</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1701.206856817581</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1296.351402228614</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>877.2089388079249</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y2" t="n">
-        <v>588.8676344144674</v>
+        <v>175.7356509591251</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1126.8230175232</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1020.366556359842</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>925.2762675063955</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>831.1558528333492</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>747.7720144495108</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>662.3869247156947</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>620.6512725319071</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>646.7149456923647</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>971.273270658577</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>1536.536301576229</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1625.979317284301</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1625.979317284301</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1625.979317284301</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1625.979317284301</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1625.979317284301</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>2166.718255916376</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>2283.891034010716</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2220.435596459099</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2090.256952789701</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.920405789669</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1714.802887851668</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1529.480133584862</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1374.612697823742</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1248.126918602963</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>355.3074402309003</v>
+        <v>973.0996549038641</v>
       </c>
       <c r="C4" t="n">
-        <v>182.7457287141253</v>
+        <v>800.5379433870891</v>
       </c>
       <c r="D4" t="n">
-        <v>45.67782068021432</v>
+        <v>634.6599505886118</v>
       </c>
       <c r="E4" t="n">
-        <v>45.67782068021432</v>
+        <v>464.9019468393491</v>
       </c>
       <c r="F4" t="n">
-        <v>45.67782068021432</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>45.67782068021432</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>45.67782068021432</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>45.67782068021432</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>45.67782068021432</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>45.67782068021432</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>446.779445611703</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>906.263312792616</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>1348.522115950261</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1768.191365176042</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>2115.698259146384</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>2283.891034010716</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2262.473212716088</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2103.231844014084</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1857.35239759254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1578.919396845645</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1291.963888716075</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W4" t="n">
-        <v>1019.937484302367</v>
+        <v>1637.729698975331</v>
       </c>
       <c r="X4" t="n">
-        <v>774.5457296357793</v>
+        <v>1392.337944308743</v>
       </c>
       <c r="Y4" t="n">
-        <v>547.1260589498875</v>
+        <v>1164.918273622851</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>1197.718769568168</v>
       </c>
       <c r="C5" t="n">
-        <v>573.3347414199409</v>
+        <v>1163.616700791996</v>
       </c>
       <c r="D5" t="n">
-        <v>137.4249565943854</v>
+        <v>727.7069159664402</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>293.9321711247354</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>270.1051455743471</v>
       </c>
       <c r="G5" t="n">
         <v>53.40121652862856</v>
@@ -4565,28 +4565,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1375.081325612185</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>2035.921380153963</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>2582.420166112558</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4598,19 +4598,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462403</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>624.2616690759949</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>624.2616690759949</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4750,25 +4750,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729424</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431415</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.133343351119</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652275</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>540.2297950422051</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
         <v>53.40121652862856</v>
@@ -4802,52 +4802,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>1810.336013065103</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>1810.336013065103</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>2471.176067606882</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>2471.176067606882</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2623.681342788512</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.395219088166</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4987,25 +4987,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168568</v>
+        <v>2527.464450923896</v>
       </c>
       <c r="C11" t="n">
-        <v>1814.514395351991</v>
+        <v>2089.321978107319</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1653.412193281763</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1219.637448440059</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>791.7700188492663</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>390.3721874725301</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111519</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111519</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L11" t="n">
-        <v>1171.795942933975</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503959</v>
+        <v>2707.113318425023</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2707.113318425023</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3687.29298499533</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4515.602859828726</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4978.449771971157</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4807.887315867963</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4548.665013184979</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363478</v>
+        <v>4186.048063118806</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774512</v>
+        <v>3781.192608529839</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3362.05014510915</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653476</v>
+        <v>2953.764021408803</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.2298140987274</v>
+        <v>810.7358703333589</v>
       </c>
       <c r="C13" t="n">
-        <v>633.6681025819523</v>
+        <v>638.1741588165838</v>
       </c>
       <c r="D13" t="n">
-        <v>467.790109783475</v>
+        <v>472.2961660181065</v>
       </c>
       <c r="E13" t="n">
-        <v>298.0321060342123</v>
+        <v>302.5381622688438</v>
       </c>
       <c r="F13" t="n">
-        <v>298.0321060342123</v>
+        <v>266.8333078899187</v>
       </c>
       <c r="G13" t="n">
-        <v>236.6381509907407</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.154217881911</v>
+        <v>2558.660274116543</v>
       </c>
       <c r="T13" t="n">
-        <v>2308.274771460367</v>
+        <v>2312.780827694998</v>
       </c>
       <c r="U13" t="n">
-        <v>2029.841770713472</v>
+        <v>2034.347826948103</v>
       </c>
       <c r="V13" t="n">
-        <v>1742.886262583902</v>
+        <v>1747.392318818534</v>
       </c>
       <c r="W13" t="n">
-        <v>1470.859858170194</v>
+        <v>1475.365914404825</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.468103503606</v>
+        <v>1229.974159738238</v>
       </c>
       <c r="Y13" t="n">
-        <v>998.0484328177146</v>
+        <v>1002.554489052346</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062124</v>
+        <v>2477.959679900129</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>2039.817207083552</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419992</v>
+        <v>1603.907422257997</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578287</v>
+        <v>1170.132677416292</v>
       </c>
       <c r="F14" t="n">
-        <v>787.680751987495</v>
+        <v>742.2652478254995</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.340956092211</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M14" t="n">
-        <v>2441.40092234507</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="N14" t="n">
-        <v>2441.40092234507</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="O14" t="n">
-        <v>3421.580588915377</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="P14" t="n">
-        <v>4249.890463748773</v>
+        <v>4346.448795075669</v>
       </c>
       <c r="Q14" t="n">
-        <v>4796.389249707368</v>
+        <v>4892.947581034264</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4978.449771971157</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4758.382544844196</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4499.160242161212</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4136.543292095039</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3731.687837506072</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3312.545374085383</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547032</v>
+        <v>2904.259250385036</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580464</v>
+        <v>833.8351357401212</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412713</v>
+        <v>661.2734242233462</v>
       </c>
       <c r="D16" t="n">
-        <v>608.792309442794</v>
+        <v>495.3954314248689</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>495.3954314248689</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>495.3954314248689</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>329.8041564506966</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111506</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111577</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458056</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169412</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849023</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.02666852346</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.15641754123</v>
+        <v>2558.660274116543</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.276971119686</v>
+        <v>2312.780827694998</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.843970372791</v>
+        <v>2034.347826948103</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.888462243221</v>
+        <v>1747.392318818534</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.862057829513</v>
+        <v>1475.365914404825</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.470303162925</v>
+        <v>1229.974159738238</v>
       </c>
       <c r="Y16" t="n">
-        <v>1139.050632477034</v>
+        <v>1002.554489052346</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,43 +5522,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E19" t="n">
         <v>673.1212928181459</v>
@@ -5698,25 +5698,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176948</v>
+        <v>2593.607408118105</v>
       </c>
       <c r="T19" t="n">
-        <v>2538.261260176948</v>
+        <v>2347.72796169656</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2069.294960949665</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1782.339452820096</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1510.313048406387</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1264.9212937398</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1037.501623053908</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5762,40 +5762,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883919</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309358</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
         <v>2090.757574835212</v>
@@ -6212,64 +6212,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1748.411126173567</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1503.019371506979</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6543,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C31" t="n">
         <v>1008.757289365886</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,13 +6938,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>475.2748675296854</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>475.2748675296854</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
         <v>2758.053686176683</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>922.9010479080736</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C37" t="n">
-        <v>750.3393363912985</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D37" t="n">
-        <v>584.4613435928212</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,7 +7120,7 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
         <v>2292.381813755403</v>
@@ -7129,16 +7129,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
         <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1342.139337312952</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1114.719666627061</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7178,10 +7178,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7254,22 +7254,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.727725908489</v>
+        <v>1181.319000882658</v>
       </c>
       <c r="C40" t="n">
-        <v>843.1660143917137</v>
+        <v>1008.757289365882</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932364</v>
+        <v>842.8792965674052</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439736</v>
+        <v>673.1212928181424</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387798985</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057262</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7342,40 +7342,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113128</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878955</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176952</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755407</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008512</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878943</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.966900465234</v>
+        <v>1845.949044954124</v>
       </c>
       <c r="X40" t="n">
-        <v>1434.966015313368</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.546344627476</v>
+        <v>1373.137619601645</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2523.375184062124</v>
+        <v>2527.881240296756</v>
       </c>
       <c r="C41" t="n">
-        <v>2085.232711245548</v>
+        <v>2089.738767480179</v>
       </c>
       <c r="D41" t="n">
-        <v>1649.322926419992</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E41" t="n">
-        <v>1215.548181578287</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F41" t="n">
-        <v>787.680751987495</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G41" t="n">
-        <v>386.2829206107589</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H41" t="n">
-        <v>97.15276605397517</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I41" t="n">
-        <v>96.73597668111518</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J41" t="n">
-        <v>531.9906641340331</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K41" t="n">
-        <v>1366.340956092211</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L41" t="n">
-        <v>2441.40092234507</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M41" t="n">
-        <v>2441.40092234507</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="N41" t="n">
-        <v>2441.40092234507</v>
+        <v>2537.959253671967</v>
       </c>
       <c r="O41" t="n">
-        <v>3421.580588915377</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="P41" t="n">
-        <v>4249.890463748773</v>
+        <v>4346.448795075669</v>
       </c>
       <c r="Q41" t="n">
-        <v>4796.389249707368</v>
+        <v>4892.947581034264</v>
       </c>
       <c r="R41" t="n">
-        <v>4836.798834055759</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S41" t="n">
-        <v>4803.798049006192</v>
+        <v>5028.371332367784</v>
       </c>
       <c r="T41" t="n">
-        <v>4803.798049006192</v>
+        <v>4808.304105240823</v>
       </c>
       <c r="U41" t="n">
-        <v>4544.575746323208</v>
+        <v>4549.081802557839</v>
       </c>
       <c r="V41" t="n">
-        <v>4181.958796257035</v>
+        <v>4186.464852491666</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.103341668068</v>
+        <v>3781.609397902699</v>
       </c>
       <c r="X41" t="n">
-        <v>3357.960878247379</v>
+        <v>3362.46693448201</v>
       </c>
       <c r="Y41" t="n">
-        <v>2949.674754547032</v>
+        <v>2954.180810781663</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>602.907721672408</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C42" t="n">
-        <v>496.4512605090503</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D42" t="n">
-        <v>401.3609716556035</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E42" t="n">
-        <v>307.2405569825572</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F42" t="n">
-        <v>223.8567185987188</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G42" t="n">
-        <v>138.4716288649027</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H42" t="n">
-        <v>96.73597668111518</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I42" t="n">
-        <v>122.7996498415728</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J42" t="n">
-        <v>447.3579748077851</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K42" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="L42" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="M42" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O42" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P42" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q42" t="n">
-        <v>1642.802960065584</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R42" t="n">
-        <v>1759.975738159924</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S42" t="n">
-        <v>1696.520300608307</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T42" t="n">
-        <v>1566.341656938909</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.005109938877</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V42" t="n">
-        <v>1190.887592000876</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W42" t="n">
-        <v>1005.56483773407</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X42" t="n">
-        <v>850.6974019729504</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y42" t="n">
-        <v>724.2116227521711</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>998.0484328177146</v>
+        <v>1014.42220072915</v>
       </c>
       <c r="C43" t="n">
-        <v>825.4867213009395</v>
+        <v>841.8604892123753</v>
       </c>
       <c r="D43" t="n">
-        <v>659.6087285024622</v>
+        <v>841.8604892123753</v>
       </c>
       <c r="E43" t="n">
-        <v>489.8507247531994</v>
+        <v>672.1024854631127</v>
       </c>
       <c r="F43" t="n">
-        <v>313.1436707149556</v>
+        <v>495.3954314248689</v>
       </c>
       <c r="G43" t="n">
-        <v>147.5523957407833</v>
+        <v>329.8041564506966</v>
       </c>
       <c r="H43" t="n">
-        <v>96.73597668111518</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="I43" t="n">
-        <v>96.73597668111518</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J43" t="n">
-        <v>183.315661845805</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K43" t="n">
-        <v>458.0741164169406</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L43" t="n">
-        <v>876.2839981849017</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M43" t="n">
-        <v>1335.767865365814</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N43" t="n">
-        <v>1778.026668523459</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O43" t="n">
-        <v>2197.695917749241</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P43" t="n">
-        <v>2545.202811719583</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q43" t="n">
-        <v>2713.395586583915</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R43" t="n">
-        <v>2713.395586583915</v>
+        <v>2696.483821523918</v>
       </c>
       <c r="S43" t="n">
-        <v>2554.154217881911</v>
+        <v>2537.242452821915</v>
       </c>
       <c r="T43" t="n">
-        <v>2308.274771460367</v>
+        <v>2516.467158090789</v>
       </c>
       <c r="U43" t="n">
-        <v>2029.841770713472</v>
+        <v>2238.034157343895</v>
       </c>
       <c r="V43" t="n">
-        <v>1742.886262583902</v>
+        <v>1951.078649214325</v>
       </c>
       <c r="W43" t="n">
-        <v>1470.859858170194</v>
+        <v>1679.052244800617</v>
       </c>
       <c r="X43" t="n">
-        <v>1225.468103503606</v>
+        <v>1433.660490134029</v>
       </c>
       <c r="Y43" t="n">
-        <v>998.0484328177146</v>
+        <v>1206.240819448137</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2522.958394689264</v>
+        <v>2527.881240296756</v>
       </c>
       <c r="C44" t="n">
-        <v>2084.815921872688</v>
+        <v>2089.738767480179</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.906137047132</v>
+        <v>1653.828982654623</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.131392205427</v>
+        <v>1220.054237812918</v>
       </c>
       <c r="F44" t="n">
-        <v>787.263962614635</v>
+        <v>792.1868082221263</v>
       </c>
       <c r="G44" t="n">
-        <v>385.8661312378989</v>
+        <v>390.7889768453902</v>
       </c>
       <c r="H44" t="n">
-        <v>96.73597668111518</v>
+        <v>101.6588222886064</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>536.4967203686642</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1370.847012326842</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2445.906978579702</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.40092234507</v>
+        <v>2537.959253671967</v>
       </c>
       <c r="O44" t="n">
-        <v>3421.580588915377</v>
+        <v>3518.138920242273</v>
       </c>
       <c r="P44" t="n">
-        <v>4249.890463748773</v>
+        <v>4346.448795075669</v>
       </c>
       <c r="Q44" t="n">
-        <v>4796.389249707368</v>
+        <v>4892.947581034264</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5062.10164578732</v>
       </c>
       <c r="S44" t="n">
-        <v>4803.381259633332</v>
+        <v>4978.449771971157</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.381259633332</v>
+        <v>4758.382544844196</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.158956950349</v>
+        <v>4499.160242161212</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.542006884175</v>
+        <v>4136.543292095039</v>
       </c>
       <c r="W44" t="n">
-        <v>3776.686552295208</v>
+        <v>3731.687837506072</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.544088874519</v>
+        <v>3362.46693448201</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.257965174172</v>
+        <v>2954.180810781663</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>607.4137779070392</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>500.9573167436815</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>405.8670278902347</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>311.7466132171884</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>228.36277483335</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>142.9776850995339</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>127.305706076204</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>451.8640310424163</v>
       </c>
       <c r="K45" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="P45" t="n">
-        <v>1128.091494878162</v>
+        <v>1106.57007766814</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1647.309016300215</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1764.481794394555</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1701.026356842938</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1570.84771317354</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1394.511166173508</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1195.393648235507</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1010.070893968702</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>855.2034582075815</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>728.7176789868023</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1175.794137292997</v>
+        <v>1180.300193527628</v>
       </c>
       <c r="C46" t="n">
-        <v>1003.232425776222</v>
+        <v>1007.738482010853</v>
       </c>
       <c r="D46" t="n">
-        <v>837.3544329777443</v>
+        <v>841.8604892123753</v>
       </c>
       <c r="E46" t="n">
-        <v>667.5964292284815</v>
+        <v>672.1024854631127</v>
       </c>
       <c r="F46" t="n">
-        <v>490.8893751902377</v>
+        <v>495.3954314248689</v>
       </c>
       <c r="G46" t="n">
-        <v>325.2981002160653</v>
+        <v>329.8041564506966</v>
       </c>
       <c r="H46" t="n">
-        <v>185.3959259064399</v>
+        <v>189.9019821410711</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>101.2420329157464</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>187.8217180804363</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>462.5801726515718</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>880.7900544195329</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1340.273921600446</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1782.532724758091</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2202.201973983872</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2549.708867954214</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2717.901642818546</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289287</v>
+        <v>2696.483821523918</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2537.242452821915</v>
       </c>
       <c r="T46" t="n">
-        <v>2286.856950165738</v>
+        <v>2291.36300640037</v>
       </c>
       <c r="U46" t="n">
-        <v>2112.450585778171</v>
+        <v>2131.885745728664</v>
       </c>
       <c r="V46" t="n">
-        <v>2112.450585778171</v>
+        <v>1844.930237599094</v>
       </c>
       <c r="W46" t="n">
-        <v>1840.424181364463</v>
+        <v>1844.930237599094</v>
       </c>
       <c r="X46" t="n">
-        <v>1595.032426697876</v>
+        <v>1599.538482932507</v>
       </c>
       <c r="Y46" t="n">
-        <v>1367.612756011984</v>
+        <v>1372.118812246615</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>527.31580227099</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>570.972758502679</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>570.972758502679</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>90.34648051320369</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8140,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>405.1531564964532</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078568</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>15.28233895958056</v>
+        <v>263.8447877225472</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1083.062567335931</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10586,16 +10586,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>376.7818457160665</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10826,13 +10826,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>92.98209605279317</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>92.98209605279317</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>268.011132734621</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>49.00972331352915</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>139.5921776627255</v>
       </c>
       <c r="G13" t="n">
-        <v>103.1553467313937</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>49.42234479266051</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>22.86827275269468</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>54.7926864617459</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.789189859683518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>81.78272691405257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>131.2385495991666</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>143.6516710866759</v>
       </c>
       <c r="X40" t="n">
-        <v>223.1369608195737</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>50.1445778789303</v>
+        <v>49.42234479266044</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25783,13 +25783,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>88.19489769745775</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.853110173515</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>49.73195639979937</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>49.42234479266062</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.9863699957344</v>
+        <v>117.7661826744363</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>595369.2233100538</v>
+        <v>586343.8824597758</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>595530.2075378457</v>
+        <v>616027.8094335387</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>595530.2075378457</v>
+        <v>616027.8094335387</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>620662.2628190463</v>
+        <v>620662.2628190464</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>595530.2075378456</v>
+        <v>616027.8094335387</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>595530.2075378456</v>
+        <v>616027.8094335387</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.806920546</v>
       </c>
       <c r="C2" t="n">
         <v>388706.8069205462</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
-        <v>366504.8260294653</v>
+        <v>379119.5849815959</v>
       </c>
       <c r="F2" t="n">
-        <v>366504.8260294654</v>
+        <v>379119.5849815959</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="H2" t="n">
         <v>381971.7484995803</v>
       </c>
       <c r="I2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="J2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="K2" t="n">
         <v>381971.7484995803</v>
       </c>
       <c r="L2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995804</v>
@@ -26350,10 +26350,10 @@
         <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>366504.8260294654</v>
+        <v>379119.584981596</v>
       </c>
       <c r="P2" t="n">
-        <v>366504.8260294652</v>
+        <v>379119.5849815959</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191346.1037476933</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>31190.03493745925</v>
+        <v>78577.04195825371</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>161735.0752101144</v>
+        <v>178552.6909404109</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>18928.52796216478</v>
+        <v>3490.497673803512</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>149391.5964256749</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>24846.93678393345</v>
+        <v>62596.87743601672</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134989.9446130035</v>
+        <v>149026.5350866915</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181557.7999672825</v>
+        <v>206656.9221303546</v>
       </c>
       <c r="C4" t="n">
-        <v>165421.5418127409</v>
+        <v>166242.1205712078</v>
       </c>
       <c r="D4" t="n">
-        <v>165421.541812741</v>
+        <v>166242.1205712078</v>
       </c>
       <c r="E4" t="n">
-        <v>78378.74857107399</v>
+        <v>82345.28168547017</v>
       </c>
       <c r="F4" t="n">
-        <v>78378.74857107397</v>
+        <v>82345.28168547017</v>
       </c>
       <c r="G4" t="n">
-        <v>81686.4213255822</v>
+        <v>82964.77542202524</v>
       </c>
       <c r="H4" t="n">
-        <v>81686.42132558218</v>
+        <v>82964.77542202522</v>
       </c>
       <c r="I4" t="n">
-        <v>81686.4213255822</v>
+        <v>82964.77542202522</v>
       </c>
       <c r="J4" t="n">
-        <v>81686.42132558218</v>
+        <v>82964.77542202522</v>
       </c>
       <c r="K4" t="n">
-        <v>81686.4213255822</v>
+        <v>82964.77542202522</v>
       </c>
       <c r="L4" t="n">
-        <v>81686.4213255822</v>
+        <v>82964.77542202522</v>
       </c>
       <c r="M4" t="n">
-        <v>81686.42132558218</v>
+        <v>82964.77542202522</v>
       </c>
       <c r="N4" t="n">
-        <v>81686.42132558221</v>
+        <v>82964.77542202524</v>
       </c>
       <c r="O4" t="n">
-        <v>78378.74857107397</v>
+        <v>82345.28168547018</v>
       </c>
       <c r="P4" t="n">
-        <v>78378.74857107397</v>
+        <v>82345.28168547017</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68342.74371696287</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26476,10 +26476,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>76943.94501596727</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>76943.94501596727</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>73519.34227764752</v>
+        <v>76943.94501596727</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>76943.94501596727</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52539.84051139245</v>
+        <v>-19566.20400674082</v>
       </c>
       <c r="C6" t="n">
-        <v>117882.7056085883</v>
+        <v>69675.11982932697</v>
       </c>
       <c r="D6" t="n">
-        <v>149072.7405460475</v>
+        <v>148252.1617875807</v>
       </c>
       <c r="E6" t="n">
-        <v>52871.65997062938</v>
+        <v>41244.60795375119</v>
       </c>
       <c r="F6" t="n">
-        <v>214606.7351807439</v>
+        <v>219797.2988941621</v>
       </c>
       <c r="G6" t="n">
-        <v>203638.560606041</v>
+        <v>217775.0124585764</v>
       </c>
       <c r="H6" t="n">
-        <v>222567.0885682056</v>
+        <v>221265.5101323799</v>
       </c>
       <c r="I6" t="n">
-        <v>222567.0885682057</v>
+        <v>221265.5101323799</v>
       </c>
       <c r="J6" t="n">
-        <v>73175.49214253074</v>
+        <v>110251.0447873897</v>
       </c>
       <c r="K6" t="n">
-        <v>197720.1517842722</v>
+        <v>158668.6326963632</v>
       </c>
       <c r="L6" t="n">
-        <v>222567.0885682056</v>
+        <v>221265.51013238</v>
       </c>
       <c r="M6" t="n">
-        <v>87577.14395520225</v>
+        <v>72238.9750456886</v>
       </c>
       <c r="N6" t="n">
-        <v>222567.0885682057</v>
+        <v>221265.51013238</v>
       </c>
       <c r="O6" t="n">
-        <v>214606.7351807439</v>
+        <v>219797.2988941621</v>
       </c>
       <c r="P6" t="n">
-        <v>214606.7351807437</v>
+        <v>219797.2988941621</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>570.972758502679</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26796,10 +26796,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1209.19970851394</v>
+        <v>1265.52541144683</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1265.52541144683</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>570.972758502679</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>96.54244810517798</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>541.6845019060829</v>
+        <v>598.0102048389731</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.06079487080569</v>
+        <v>12.73509193791529</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>570.972758502679</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>96.54244810517798</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6845019060829</v>
+        <v>598.0102048389731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>570.972758502679</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>96.54244810517798</v>
+        <v>243.2193490877526</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6845019060829</v>
+        <v>598.0102048389731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69.06079487080569</v>
+        <v>12.73509193791529</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>118.7453711138201</v>
+        <v>72.71868052833509</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27540,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>28.5219839169207</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>210.4469465755355</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>369.8422500230728</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>182.8469633077074</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27670,10 +27670,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>33.58904338006434</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>83.52887324140028</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>369.8422500230731</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>33.58904338006383</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>527.31580227099</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>570.972758502679</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>570.972758502679</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>90.34648051320369</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,22 +34860,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>405.1531564964532</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078568</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078567</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>88.52591951401018</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,13 +35188,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.03100411261585</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>15.28233895958056</v>
+        <v>263.8447877225472</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,19 +35656,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1083.062567335931</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,10 +35890,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37306,16 +37306,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>376.7818457160665</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37546,13 +37546,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37710,7 +37710,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956047</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512943</v>
@@ -37780,7 +37780,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37789,19 +37789,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>92.98209605279317</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,7 +37944,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850285</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,19 +38026,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>92.98209605279317</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38181,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
